--- a/src/main/resources/listOfLists.xlsx
+++ b/src/main/resources/listOfLists.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>data11</t>
   </si>
@@ -39,6 +39,96 @@
   </si>
   <si>
     <t>data15</t>
+  </si>
+  <si>
+    <t>data21</t>
+  </si>
+  <si>
+    <t>data22</t>
+  </si>
+  <si>
+    <t>data23</t>
+  </si>
+  <si>
+    <t>data24</t>
+  </si>
+  <si>
+    <t>data25</t>
+  </si>
+  <si>
+    <t>data31</t>
+  </si>
+  <si>
+    <t>data32</t>
+  </si>
+  <si>
+    <t>data33</t>
+  </si>
+  <si>
+    <t>data34</t>
+  </si>
+  <si>
+    <t>data35</t>
+  </si>
+  <si>
+    <t>data41</t>
+  </si>
+  <si>
+    <t>data42</t>
+  </si>
+  <si>
+    <t>data43</t>
+  </si>
+  <si>
+    <t>data44</t>
+  </si>
+  <si>
+    <t>data45</t>
+  </si>
+  <si>
+    <t>data51</t>
+  </si>
+  <si>
+    <t>data52</t>
+  </si>
+  <si>
+    <t>data53</t>
+  </si>
+  <si>
+    <t>data54</t>
+  </si>
+  <si>
+    <t>data55</t>
+  </si>
+  <si>
+    <t>data61</t>
+  </si>
+  <si>
+    <t>data62</t>
+  </si>
+  <si>
+    <t>data63</t>
+  </si>
+  <si>
+    <t>data64</t>
+  </si>
+  <si>
+    <t>data65</t>
+  </si>
+  <si>
+    <t>data71</t>
+  </si>
+  <si>
+    <t>data72</t>
+  </si>
+  <si>
+    <t>data73</t>
+  </si>
+  <si>
+    <t>data74</t>
+  </si>
+  <si>
+    <t>data75</t>
   </si>
 </sst>
 </file>
@@ -359,7 +449,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,104 +473,104 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
